--- a/Implementación/Test 8/decisiones_w2.xlsx
+++ b/Implementación/Test 8/decisiones_w2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A532B46A-BB04-4ACC-9C8C-9D1AC049EB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67538E82-6736-4565-BE5C-E96157ADB49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{9501300A-8162-4DF6-AD5D-8CB659A0DB07}"/>
   </bookViews>
@@ -35,21 +35,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Var1_1</t>
-  </si>
-  <si>
-    <t>Var1_2</t>
-  </si>
-  <si>
-    <t>Var1_3</t>
-  </si>
-  <si>
-    <t>Var1_4</t>
-  </si>
-  <si>
-    <t>Var1_5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>SMARTER</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>TOPSIS</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>CODAS</t>
+  </si>
+  <si>
+    <t>MABAC</t>
+  </si>
+  <si>
+    <t>VIKOR</t>
+  </si>
+  <si>
+    <t>PROMETHEE II</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Entropia</t>
+  </si>
+  <si>
+    <t>SSIM</t>
   </si>
 </sst>
 </file>
@@ -401,166 +428,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0D7086-17C2-4086-9FC5-EE0B8CA52772}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>0.85555620543820188</v>
+      </c>
+      <c r="E2">
+        <v>7.6988392256165978</v>
+      </c>
+      <c r="F2">
+        <v>0.5037456932892298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.20340149173653965</v>
+      </c>
+      <c r="E3">
+        <v>7.2813472349980586</v>
+      </c>
+      <c r="F3">
+        <v>0.66580678629478551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.53261588576233754</v>
+      </c>
+      <c r="E4">
+        <v>7.5087664445419611</v>
+      </c>
+      <c r="F4">
+        <v>0.66157895860185845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="D5">
         <v>0.85555620543820188</v>
       </c>
-      <c r="D2">
+      <c r="E5">
         <v>7.6988392256165978</v>
       </c>
-      <c r="E2">
+      <c r="F5">
         <v>0.5037456932892298</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.20340149173653965</v>
-      </c>
-      <c r="D3">
-        <v>7.2813472349980586</v>
-      </c>
-      <c r="E3">
-        <v>0.66580678629478551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>0.85555620543820188</v>
+      </c>
+      <c r="E6">
+        <v>7.6988392256165978</v>
+      </c>
+      <c r="F6">
+        <v>0.5037456932892298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0.85555620543820188</v>
+      </c>
+      <c r="E7">
+        <v>7.6988392256165978</v>
+      </c>
+      <c r="F7">
+        <v>0.5037456932892298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>0.53261588576233754</v>
       </c>
-      <c r="D4">
+      <c r="E8">
         <v>7.5087664445419611</v>
       </c>
-      <c r="E4">
+      <c r="F8">
         <v>0.66157895860185845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="D9">
         <v>0.85555620543820188</v>
       </c>
-      <c r="D5">
+      <c r="E9">
         <v>7.6988392256165978</v>
       </c>
-      <c r="E5">
-        <v>0.5037456932892298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.85555620543820188</v>
-      </c>
-      <c r="D6">
-        <v>7.6988392256165978</v>
-      </c>
-      <c r="E6">
-        <v>0.5037456932892298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.85555620543820188</v>
-      </c>
-      <c r="D7">
-        <v>7.6988392256165978</v>
-      </c>
-      <c r="E7">
-        <v>0.5037456932892298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0.53261588576233754</v>
-      </c>
-      <c r="D8">
-        <v>7.5087664445419611</v>
-      </c>
-      <c r="E8">
-        <v>0.66157895860185845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.85555620543820188</v>
-      </c>
-      <c r="D9">
-        <v>7.6988392256165978</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5037456932892298</v>
       </c>
     </row>

--- a/Implementación/Test 8/decisiones_w2.xlsx
+++ b/Implementación/Test 8/decisiones_w2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TCLAMR\OneDrive\OneDrive - MIC\Documents\GitHub\Tesis\Implementación\Test 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67538E82-6736-4565-BE5C-E96157ADB49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351A0ACC-D0A2-40ED-B308-77752014D2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{9501300A-8162-4DF6-AD5D-8CB659A0DB07}"/>
   </bookViews>
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,13 +434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0D7086-17C2-4086-9FC5-EE0B8CA52772}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="D2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,13 +477,13 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.85555620543820188</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7.6988392256165978</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.5037456932892298</v>
       </c>
     </row>
@@ -489,13 +497,13 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.20340149173653965</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>7.2813472349980586</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.66580678629478551</v>
       </c>
     </row>
@@ -509,13 +517,13 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.53261588576233754</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>7.5087664445419611</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.66157895860185845</v>
       </c>
     </row>
@@ -529,13 +537,13 @@
       <c r="C5">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.85555620543820188</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>7.6988392256165978</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.5037456932892298</v>
       </c>
     </row>
@@ -549,13 +557,13 @@
       <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.85555620543820188</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>7.6988392256165978</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.5037456932892298</v>
       </c>
     </row>
@@ -569,13 +577,13 @@
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.85555620543820188</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>7.6988392256165978</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.5037456932892298</v>
       </c>
     </row>
@@ -589,13 +597,13 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.53261588576233754</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>7.5087664445419611</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.66157895860185845</v>
       </c>
     </row>
@@ -609,13 +617,13 @@
       <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.85555620543820188</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>7.6988392256165978</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.5037456932892298</v>
       </c>
     </row>
